--- a/SCFrameworkImpl/Results/Current Results/ChangeWorkerRate_1-64/ResultGenerator_Results.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeWorkerRate_1-64/ResultGenerator_Results.xlsx
@@ -1144,8 +1144,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="346421808"/>
-        <c:axId val="346419064"/>
+        <c:axId val="267307896"/>
+        <c:axId val="267308288"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1263,7 +1263,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346421808"/>
+        <c:axId val="267307896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Workers Arrival Rate (worker/min)</a:t>
+                  <a:t>Worker Arrival Rate (worker/min)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1369,7 +1369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346419064"/>
+        <c:crossAx val="267308288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346419064"/>
+        <c:axId val="267308288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1493,7 +1493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346421808"/>
+        <c:crossAx val="267307896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6085,31 +6085,31 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <f>MIN(C14/10, 100)</f>
+        <f t="shared" ref="C27:I33" si="0">MIN(C14/10, 100)</f>
         <v>81.06</v>
       </c>
       <c r="D27">
-        <f>MIN(D14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>83.26</v>
       </c>
       <c r="E27">
-        <f>MIN(E14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>83.179999999999993</v>
       </c>
       <c r="F27">
-        <f>MIN(F14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>85.820000000000007</v>
       </c>
       <c r="G27">
-        <f>MIN(G14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>87.78</v>
       </c>
       <c r="H27">
-        <f>MIN(H14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>89.14</v>
       </c>
       <c r="I27">
-        <f>MIN(I14/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>90.06</v>
       </c>
     </row>
@@ -6118,31 +6118,31 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <f>MIN(C15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>92.06</v>
       </c>
       <c r="D28">
-        <f>MIN(D15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>92.86</v>
       </c>
       <c r="E28">
-        <f>MIN(E15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>93.52000000000001</v>
       </c>
       <c r="F28">
-        <f>MIN(F15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>95.53</v>
       </c>
       <c r="G28">
-        <f>MIN(G15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="H28">
-        <f>MIN(H15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I28">
-        <f>MIN(I15/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6151,31 +6151,31 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <f>MIN(C16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>94.320000000000007</v>
       </c>
       <c r="D29">
-        <f>MIN(D16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>94.44</v>
       </c>
       <c r="E29">
-        <f>MIN(E16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>94.36</v>
       </c>
       <c r="F29">
-        <f>MIN(F16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>97.44</v>
       </c>
       <c r="G29">
-        <f>MIN(G16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>97.62</v>
       </c>
       <c r="H29">
-        <f>MIN(H16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>97.88</v>
       </c>
       <c r="I29">
-        <f>MIN(I16/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6184,31 +6184,31 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f>MIN(C17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.039999999999992</v>
       </c>
       <c r="D30">
-        <f>MIN(D17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.26</v>
       </c>
       <c r="E30">
-        <f>MIN(E17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.539999999999992</v>
       </c>
       <c r="F30">
-        <f>MIN(F17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.86</v>
       </c>
       <c r="G30">
-        <f>MIN(G17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H30">
-        <f>MIN(H17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I30">
-        <f>MIN(I17/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6217,31 +6217,31 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <f>MIN(C18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.26</v>
       </c>
       <c r="D31">
-        <f>MIN(D18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.34</v>
       </c>
       <c r="E31">
-        <f>MIN(E18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.36</v>
       </c>
       <c r="F31">
-        <f>MIN(F18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="G31">
-        <f>MIN(G18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.76</v>
       </c>
       <c r="H31">
-        <f>MIN(H18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.76</v>
       </c>
       <c r="I31">
-        <f>MIN(I18/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.76</v>
       </c>
     </row>
@@ -6250,31 +6250,31 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <f>MIN(C19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D32">
-        <f>MIN(D19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E32">
-        <f>MIN(E19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F32">
-        <f>MIN(F19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G32">
-        <f>MIN(G19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H32">
-        <f>MIN(H19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I32">
-        <f>MIN(I19/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6283,31 +6283,31 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <f>MIN(C20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="D33">
-        <f>MIN(D20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="E33">
-        <f>MIN(E20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="F33">
-        <f>MIN(F20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.94</v>
       </c>
       <c r="G33">
-        <f>MIN(G20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="H33">
-        <f>MIN(H20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I33">
-        <f>MIN(I20/10, 100)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
